--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>F11r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H2">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I2">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J2">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.502417523899</v>
+        <v>22.96155933333333</v>
       </c>
       <c r="N2">
-        <v>17.502417523899</v>
+        <v>68.88467799999999</v>
       </c>
       <c r="O2">
-        <v>0.5109062970921214</v>
+        <v>0.5489763553419701</v>
       </c>
       <c r="P2">
-        <v>0.5109062970921214</v>
+        <v>0.5489763553419702</v>
       </c>
       <c r="Q2">
-        <v>1463.658326539808</v>
+        <v>2091.029172144683</v>
       </c>
       <c r="R2">
-        <v>1463.658326539808</v>
+        <v>18819.26254930215</v>
       </c>
       <c r="S2">
-        <v>0.4700261209593489</v>
+        <v>0.5007917747548787</v>
       </c>
       <c r="T2">
-        <v>0.4700261209593489</v>
+        <v>0.5007917747548789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H3">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I3">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J3">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.89613856612359</v>
+        <v>6.378830000000001</v>
       </c>
       <c r="N3">
-        <v>4.89613856612359</v>
+        <v>19.13649</v>
       </c>
       <c r="O3">
-        <v>0.1429212862424552</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="P3">
-        <v>0.1429212862424552</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="Q3">
-        <v>409.444807862351</v>
+        <v>580.8978136248967</v>
       </c>
       <c r="R3">
-        <v>409.444807862351</v>
+        <v>5228.080322624071</v>
       </c>
       <c r="S3">
-        <v>0.1314854370701744</v>
+        <v>0.1391223283308226</v>
       </c>
       <c r="T3">
-        <v>0.1314854370701744</v>
+        <v>0.1391223283308226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H4">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I4">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J4">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.7479531363066</v>
+        <v>11.11217866666667</v>
       </c>
       <c r="N4">
-        <v>10.7479531363066</v>
+        <v>33.336536</v>
       </c>
       <c r="O4">
-        <v>0.313739340904878</v>
+        <v>0.265675482042703</v>
       </c>
       <c r="P4">
-        <v>0.313739340904878</v>
+        <v>0.2656754820427031</v>
       </c>
       <c r="Q4">
-        <v>898.8090405073566</v>
+        <v>1011.947377822561</v>
       </c>
       <c r="R4">
-        <v>898.8090405073566</v>
+        <v>9107.526400403049</v>
       </c>
       <c r="S4">
-        <v>0.288635482156277</v>
+        <v>0.2423566969075461</v>
       </c>
       <c r="T4">
-        <v>0.288635482156277</v>
+        <v>0.2423566969075462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.6260662014964</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H5">
-        <v>83.6260662014964</v>
+        <v>273.199543</v>
       </c>
       <c r="I5">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J5">
-        <v>0.9199849828325732</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.11107895278684</v>
+        <v>1.114035666666667</v>
       </c>
       <c r="N5">
-        <v>1.11107895278684</v>
+        <v>3.342107</v>
       </c>
       <c r="O5">
-        <v>0.03243307576054556</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="P5">
-        <v>0.03243307576054556</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="Q5">
-        <v>92.91516206084158</v>
+        <v>101.4513450063446</v>
       </c>
       <c r="R5">
-        <v>92.91516206084158</v>
+        <v>913.062105057101</v>
       </c>
       <c r="S5">
-        <v>0.02983794264677306</v>
+        <v>0.02429712592908837</v>
       </c>
       <c r="T5">
-        <v>0.02983794264677306</v>
+        <v>0.02429712592908838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.31490838225643</v>
+        <v>91.06651433333333</v>
       </c>
       <c r="H6">
-        <v>3.31490838225643</v>
+        <v>273.199543</v>
       </c>
       <c r="I6">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451645</v>
       </c>
       <c r="J6">
-        <v>0.0364678869838692</v>
+        <v>0.9122283134451646</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>17.502417523899</v>
+        <v>0.2595316666666667</v>
       </c>
       <c r="N6">
-        <v>17.502417523899</v>
+        <v>0.778595</v>
       </c>
       <c r="O6">
-        <v>0.5109062970921214</v>
+        <v>0.006205011880689654</v>
       </c>
       <c r="P6">
-        <v>0.5109062970921214</v>
+        <v>0.006205011880689656</v>
       </c>
       <c r="Q6">
-        <v>58.01891055972462</v>
+        <v>23.63464424245389</v>
       </c>
       <c r="R6">
-        <v>58.01891055972462</v>
+        <v>212.711798182085</v>
       </c>
       <c r="S6">
-        <v>0.01863167310170259</v>
+        <v>0.005660387522828731</v>
       </c>
       <c r="T6">
-        <v>0.01863167310170259</v>
+        <v>0.005660387522828734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.31490838225643</v>
+        <v>3.316953</v>
       </c>
       <c r="H7">
-        <v>3.31490838225643</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I7">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J7">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.89613856612359</v>
+        <v>22.96155933333333</v>
       </c>
       <c r="N7">
-        <v>4.89613856612359</v>
+        <v>68.88467799999999</v>
       </c>
       <c r="O7">
-        <v>0.1429212862424552</v>
+        <v>0.5489763553419701</v>
       </c>
       <c r="P7">
-        <v>0.1429212862424552</v>
+        <v>0.5489763553419702</v>
       </c>
       <c r="Q7">
-        <v>16.23025077353207</v>
+        <v>76.16241311537799</v>
       </c>
       <c r="R7">
-        <v>16.23025077353207</v>
+        <v>685.461718038402</v>
       </c>
       <c r="S7">
-        <v>0.005212037314279075</v>
+        <v>0.01824054419792919</v>
       </c>
       <c r="T7">
-        <v>0.005212037314279075</v>
+        <v>0.0182405441979292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.31490838225643</v>
+        <v>3.316953</v>
       </c>
       <c r="H8">
-        <v>3.31490838225643</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I8">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J8">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7479531363066</v>
+        <v>6.378830000000001</v>
       </c>
       <c r="N8">
-        <v>10.7479531363066</v>
+        <v>19.13649</v>
       </c>
       <c r="O8">
-        <v>0.313739340904878</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="P8">
-        <v>0.313739340904878</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="Q8">
-        <v>35.62847994364203</v>
+        <v>21.15827930499</v>
       </c>
       <c r="R8">
-        <v>35.62847994364203</v>
+        <v>190.42451374491</v>
       </c>
       <c r="S8">
-        <v>0.0114414108265127</v>
+        <v>0.005067309622006655</v>
       </c>
       <c r="T8">
-        <v>0.0114414108265127</v>
+        <v>0.005067309622006656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.31490838225643</v>
+        <v>3.316953</v>
       </c>
       <c r="H9">
-        <v>3.31490838225643</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I9">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J9">
-        <v>0.0364678869838692</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.11107895278684</v>
+        <v>11.11217866666667</v>
       </c>
       <c r="N9">
-        <v>1.11107895278684</v>
+        <v>33.336536</v>
       </c>
       <c r="O9">
-        <v>0.03243307576054556</v>
+        <v>0.265675482042703</v>
       </c>
       <c r="P9">
-        <v>0.03243307576054556</v>
+        <v>0.2656754820427031</v>
       </c>
       <c r="Q9">
-        <v>3.683124933941793</v>
+        <v>36.858574364936</v>
       </c>
       <c r="R9">
-        <v>3.683124933941793</v>
+        <v>331.727169284424</v>
       </c>
       <c r="S9">
-        <v>0.001182765741374843</v>
+        <v>0.008827457367425856</v>
       </c>
       <c r="T9">
-        <v>0.001182765741374843</v>
+        <v>0.008827457367425859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H10">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I10">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J10">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.502417523899</v>
+        <v>1.114035666666667</v>
       </c>
       <c r="N10">
-        <v>17.502417523899</v>
+        <v>3.342107</v>
       </c>
       <c r="O10">
-        <v>0.5109062970921214</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="P10">
-        <v>0.5109062970921214</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="Q10">
-        <v>22.95596833100763</v>
+        <v>3.695203946657</v>
       </c>
       <c r="R10">
-        <v>22.95596833100763</v>
+        <v>33.256835519913</v>
       </c>
       <c r="S10">
-        <v>0.007371873989879368</v>
+        <v>0.0008849841825160097</v>
       </c>
       <c r="T10">
-        <v>0.007371873989879368</v>
+        <v>0.0008849841825160098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.31158843055035</v>
+        <v>3.316953</v>
       </c>
       <c r="H11">
-        <v>1.31158843055035</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I11">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="J11">
-        <v>0.01442901375817285</v>
+        <v>0.03322646598607464</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.89613856612359</v>
+        <v>0.2595316666666667</v>
       </c>
       <c r="N11">
-        <v>4.89613856612359</v>
+        <v>0.778595</v>
       </c>
       <c r="O11">
-        <v>0.1429212862424552</v>
+        <v>0.006205011880689654</v>
       </c>
       <c r="P11">
-        <v>0.1429212862424552</v>
+        <v>0.006205011880689656</v>
       </c>
       <c r="Q11">
-        <v>6.421718697699081</v>
+        <v>0.860854340345</v>
       </c>
       <c r="R11">
-        <v>6.421718697699081</v>
+        <v>7.747689063105</v>
       </c>
       <c r="S11">
-        <v>0.002062213205528146</v>
+        <v>0.0002061706161969238</v>
       </c>
       <c r="T11">
-        <v>0.002062213205528146</v>
+        <v>0.0002061706161969239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.31158843055035</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H12">
-        <v>1.31158843055035</v>
+        <v>0.217724</v>
       </c>
       <c r="I12">
-        <v>0.01442901375817285</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J12">
-        <v>0.01442901375817285</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7479531363066</v>
+        <v>22.96155933333333</v>
       </c>
       <c r="N12">
-        <v>10.7479531363066</v>
+        <v>68.88467799999999</v>
       </c>
       <c r="O12">
-        <v>0.313739340904878</v>
+        <v>0.5489763553419701</v>
       </c>
       <c r="P12">
-        <v>0.313739340904878</v>
+        <v>0.5489763553419702</v>
       </c>
       <c r="Q12">
-        <v>14.09689098567709</v>
+        <v>1.666427514763555</v>
       </c>
       <c r="R12">
-        <v>14.09689098567709</v>
+        <v>14.997847632872</v>
       </c>
       <c r="S12">
-        <v>0.004526949266396568</v>
+        <v>0.0003991016499128303</v>
       </c>
       <c r="T12">
-        <v>0.004526949266396568</v>
+        <v>0.0003991016499128303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1222,235 +1222,235 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.31158843055035</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H13">
-        <v>1.31158843055035</v>
+        <v>0.217724</v>
       </c>
       <c r="I13">
-        <v>0.01442901375817285</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J13">
-        <v>0.01442901375817285</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.11107895278684</v>
+        <v>6.378830000000001</v>
       </c>
       <c r="N13">
-        <v>1.11107895278684</v>
+        <v>19.13649</v>
       </c>
       <c r="O13">
-        <v>0.03243307576054556</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="P13">
-        <v>0.03243307576054556</v>
+        <v>0.1525082331696181</v>
       </c>
       <c r="Q13">
-        <v>1.457278299903218</v>
+        <v>0.4629414609733333</v>
       </c>
       <c r="R13">
-        <v>1.457278299903218</v>
+        <v>4.166473148760001</v>
       </c>
       <c r="S13">
-        <v>0.0004679772963687744</v>
+        <v>0.0001108723297297024</v>
       </c>
       <c r="T13">
-        <v>0.0004679772963687744</v>
+        <v>0.0001108723297297024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H14">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I14">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J14">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.502417523899</v>
+        <v>11.11217866666667</v>
       </c>
       <c r="N14">
-        <v>17.502417523899</v>
+        <v>33.336536</v>
       </c>
       <c r="O14">
-        <v>0.5109062970921214</v>
+        <v>0.265675482042703</v>
       </c>
       <c r="P14">
-        <v>0.5109062970921214</v>
+        <v>0.2656754820427031</v>
       </c>
       <c r="Q14">
-        <v>46.32572743519038</v>
+        <v>0.8064626626737778</v>
       </c>
       <c r="R14">
-        <v>46.32572743519038</v>
+        <v>7.258163964064001</v>
       </c>
       <c r="S14">
-        <v>0.01487662904119065</v>
+        <v>0.0001931440620217237</v>
       </c>
       <c r="T14">
-        <v>0.01487662904119065</v>
+        <v>0.0001931440620217237</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H15">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I15">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J15">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.89613856612359</v>
+        <v>1.114035666666667</v>
       </c>
       <c r="N15">
-        <v>4.89613856612359</v>
+        <v>3.342107</v>
       </c>
       <c r="O15">
-        <v>0.1429212862424552</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="P15">
-        <v>0.1429212862424552</v>
+        <v>0.02663491756501912</v>
       </c>
       <c r="Q15">
-        <v>12.95919151679781</v>
+        <v>0.0808507671631111</v>
       </c>
       <c r="R15">
-        <v>12.95919151679781</v>
+        <v>0.727656904468</v>
       </c>
       <c r="S15">
-        <v>0.004161598652473563</v>
+        <v>1.936338321687763E-05</v>
       </c>
       <c r="T15">
-        <v>0.004161598652473563</v>
+        <v>1.936338321687763E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.64681878214447</v>
+        <v>0.07257466666666666</v>
       </c>
       <c r="H16">
-        <v>2.64681878214447</v>
+        <v>0.217724</v>
       </c>
       <c r="I16">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="J16">
-        <v>0.02911811642538484</v>
+        <v>0.0007269924214936736</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.7479531363066</v>
+        <v>0.2595316666666667</v>
       </c>
       <c r="N16">
-        <v>10.7479531363066</v>
+        <v>0.778595</v>
       </c>
       <c r="O16">
-        <v>0.313739340904878</v>
+        <v>0.006205011880689654</v>
       </c>
       <c r="P16">
-        <v>0.313739340904878</v>
+        <v>0.006205011880689656</v>
       </c>
       <c r="Q16">
-        <v>28.44788423078488</v>
+        <v>0.01883542419777778</v>
       </c>
       <c r="R16">
-        <v>28.44788423078488</v>
+        <v>0.16951881778</v>
       </c>
       <c r="S16">
-        <v>0.009135498655691743</v>
+        <v>4.510996612539585E-06</v>
       </c>
       <c r="T16">
-        <v>0.009135498655691743</v>
+        <v>4.510996612539587E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.187537</v>
+      </c>
+      <c r="H17">
+        <v>0.562611</v>
+      </c>
+      <c r="I17">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J17">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.96155933333333</v>
+      </c>
+      <c r="N17">
+        <v>68.88467799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.5489763553419701</v>
+      </c>
+      <c r="P17">
+        <v>0.5489763553419702</v>
+      </c>
+      <c r="Q17">
+        <v>4.306141952695333</v>
+      </c>
+      <c r="R17">
+        <v>38.755277574258</v>
+      </c>
+      <c r="S17">
+        <v>0.001031300997405464</v>
+      </c>
+      <c r="T17">
+        <v>0.001031300997405465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.187537</v>
+      </c>
+      <c r="H18">
+        <v>0.562611</v>
+      </c>
+      <c r="I18">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J18">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.378830000000001</v>
+      </c>
+      <c r="N18">
+        <v>19.13649</v>
+      </c>
+      <c r="O18">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="P18">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="Q18">
+        <v>1.19626664171</v>
+      </c>
+      <c r="R18">
+        <v>10.76639977539</v>
+      </c>
+      <c r="S18">
+        <v>0.0002865003045211259</v>
+      </c>
+      <c r="T18">
+        <v>0.000286500304521126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.187537</v>
+      </c>
+      <c r="H19">
+        <v>0.562611</v>
+      </c>
+      <c r="I19">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J19">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.11217866666667</v>
+      </c>
+      <c r="N19">
+        <v>33.336536</v>
+      </c>
+      <c r="O19">
+        <v>0.265675482042703</v>
+      </c>
+      <c r="P19">
+        <v>0.2656754820427031</v>
+      </c>
+      <c r="Q19">
+        <v>2.083944650610666</v>
+      </c>
+      <c r="R19">
+        <v>18.755501855496</v>
+      </c>
+      <c r="S19">
+        <v>0.0004990950647521816</v>
+      </c>
+      <c r="T19">
+        <v>0.0004990950647521817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.187537</v>
+      </c>
+      <c r="H20">
+        <v>0.562611</v>
+      </c>
+      <c r="I20">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J20">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.114035666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.342107</v>
+      </c>
+      <c r="O20">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="P20">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="Q20">
+        <v>0.2089229068196666</v>
+      </c>
+      <c r="R20">
+        <v>1.880306161377</v>
+      </c>
+      <c r="S20">
+        <v>5.00360658220074E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.003606582200741E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.187537</v>
+      </c>
+      <c r="H21">
+        <v>0.562611</v>
+      </c>
+      <c r="I21">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="J21">
+        <v>0.00187858910018637</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2595316666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.778595</v>
+      </c>
+      <c r="O21">
+        <v>0.006205011880689654</v>
+      </c>
+      <c r="P21">
+        <v>0.006205011880689656</v>
+      </c>
+      <c r="Q21">
+        <v>0.04867179017166666</v>
+      </c>
+      <c r="R21">
+        <v>0.438046111545</v>
+      </c>
+      <c r="S21">
+        <v>1.165666768559051E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.165666768559052E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.028882</v>
+      </c>
+      <c r="I22">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J22">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.96155933333333</v>
+      </c>
+      <c r="N22">
+        <v>68.88467799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5489763553419701</v>
+      </c>
+      <c r="P22">
+        <v>0.5489763553419702</v>
+      </c>
+      <c r="Q22">
+        <v>30.83647102999955</v>
+      </c>
+      <c r="R22">
+        <v>277.528239269996</v>
+      </c>
+      <c r="S22">
+        <v>0.007385191588911207</v>
+      </c>
+      <c r="T22">
+        <v>0.007385191588911208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.64681878214447</v>
-      </c>
-      <c r="H17">
-        <v>2.64681878214447</v>
-      </c>
-      <c r="I17">
-        <v>0.02911811642538484</v>
-      </c>
-      <c r="J17">
-        <v>0.02911811642538484</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.11107895278684</v>
-      </c>
-      <c r="N17">
-        <v>1.11107895278684</v>
-      </c>
-      <c r="O17">
-        <v>0.03243307576054556</v>
-      </c>
-      <c r="P17">
-        <v>0.03243307576054556</v>
-      </c>
-      <c r="Q17">
-        <v>2.940824640681617</v>
-      </c>
-      <c r="R17">
-        <v>2.940824640681617</v>
-      </c>
-      <c r="S17">
-        <v>0.0009443900760288928</v>
-      </c>
-      <c r="T17">
-        <v>0.0009443900760288928</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.028882</v>
+      </c>
+      <c r="I23">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J23">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.378830000000001</v>
+      </c>
+      <c r="N23">
+        <v>19.13649</v>
+      </c>
+      <c r="O23">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="P23">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="Q23">
+        <v>8.566517789353334</v>
+      </c>
+      <c r="R23">
+        <v>77.09866010418001</v>
+      </c>
+      <c r="S23">
+        <v>0.002051641222584846</v>
+      </c>
+      <c r="T23">
+        <v>0.002051641222584847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.028882</v>
+      </c>
+      <c r="I24">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J24">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.11217866666667</v>
+      </c>
+      <c r="N24">
+        <v>33.336536</v>
+      </c>
+      <c r="O24">
+        <v>0.265675482042703</v>
+      </c>
+      <c r="P24">
+        <v>0.2656754820427031</v>
+      </c>
+      <c r="Q24">
+        <v>14.92321887030578</v>
+      </c>
+      <c r="R24">
+        <v>134.308969832752</v>
+      </c>
+      <c r="S24">
+        <v>0.003574041607200889</v>
+      </c>
+      <c r="T24">
+        <v>0.003574041607200889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.028882</v>
+      </c>
+      <c r="I25">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J25">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.114035666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.342107</v>
+      </c>
+      <c r="O25">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="P25">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="Q25">
+        <v>1.496106081597111</v>
+      </c>
+      <c r="R25">
+        <v>13.464954734374</v>
+      </c>
+      <c r="S25">
+        <v>0.0003583104577427403</v>
+      </c>
+      <c r="T25">
+        <v>0.0003583104577427403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.342960666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.028882</v>
+      </c>
+      <c r="I26">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="J26">
+        <v>0.0134526587840214</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.2595316666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.778595</v>
+      </c>
+      <c r="O26">
+        <v>0.006205011880689654</v>
+      </c>
+      <c r="P26">
+        <v>0.006205011880689656</v>
+      </c>
+      <c r="Q26">
+        <v>0.3485408200877778</v>
+      </c>
+      <c r="R26">
+        <v>3.13686738079</v>
+      </c>
+      <c r="S26">
+        <v>8.347390758171682E-05</v>
+      </c>
+      <c r="T26">
+        <v>8.347390758171684E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.842103</v>
+      </c>
+      <c r="H27">
+        <v>11.526309</v>
+      </c>
+      <c r="I27">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J27">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>22.96155933333333</v>
+      </c>
+      <c r="N27">
+        <v>68.88467799999999</v>
+      </c>
+      <c r="O27">
+        <v>0.5489763553419701</v>
+      </c>
+      <c r="P27">
+        <v>0.5489763553419702</v>
+      </c>
+      <c r="Q27">
+        <v>88.220675999278</v>
+      </c>
+      <c r="R27">
+        <v>793.986083993502</v>
+      </c>
+      <c r="S27">
+        <v>0.02112844215293264</v>
+      </c>
+      <c r="T27">
+        <v>0.02112844215293264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.842103</v>
+      </c>
+      <c r="H28">
+        <v>11.526309</v>
+      </c>
+      <c r="I28">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J28">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6.378830000000001</v>
+      </c>
+      <c r="N28">
+        <v>19.13649</v>
+      </c>
+      <c r="O28">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="P28">
+        <v>0.1525082331696181</v>
+      </c>
+      <c r="Q28">
+        <v>24.50812187949001</v>
+      </c>
+      <c r="R28">
+        <v>220.57309691541</v>
+      </c>
+      <c r="S28">
+        <v>0.005869581359953137</v>
+      </c>
+      <c r="T28">
+        <v>0.005869581359953138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.842103</v>
+      </c>
+      <c r="H29">
+        <v>11.526309</v>
+      </c>
+      <c r="I29">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J29">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.11217866666667</v>
+      </c>
+      <c r="N29">
+        <v>33.336536</v>
+      </c>
+      <c r="O29">
+        <v>0.265675482042703</v>
+      </c>
+      <c r="P29">
+        <v>0.2656754820427031</v>
+      </c>
+      <c r="Q29">
+        <v>42.69413499173601</v>
+      </c>
+      <c r="R29">
+        <v>384.2472149256241</v>
+      </c>
+      <c r="S29">
+        <v>0.01022504703375628</v>
+      </c>
+      <c r="T29">
+        <v>0.01022504703375628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.842103</v>
+      </c>
+      <c r="H30">
+        <v>11.526309</v>
+      </c>
+      <c r="I30">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J30">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.114035666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.342107</v>
+      </c>
+      <c r="O30">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="P30">
+        <v>0.02663491756501912</v>
+      </c>
+      <c r="Q30">
+        <v>4.280239777007</v>
+      </c>
+      <c r="R30">
+        <v>38.522157993063</v>
+      </c>
+      <c r="S30">
+        <v>0.001025097546633102</v>
+      </c>
+      <c r="T30">
+        <v>0.001025097546633102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.842103</v>
+      </c>
+      <c r="H31">
+        <v>11.526309</v>
+      </c>
+      <c r="I31">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="J31">
+        <v>0.03848698026305931</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.2595316666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.778595</v>
+      </c>
+      <c r="O31">
+        <v>0.006205011880689654</v>
+      </c>
+      <c r="P31">
+        <v>0.006205011880689656</v>
+      </c>
+      <c r="Q31">
+        <v>0.9971473950950001</v>
+      </c>
+      <c r="R31">
+        <v>8.974326555855001</v>
+      </c>
+      <c r="S31">
+        <v>0.0002388121697841512</v>
+      </c>
+      <c r="T31">
+        <v>0.0002388121697841513</v>
       </c>
     </row>
   </sheetData>
